--- a/static/Stimul_2_1.xlsx
+++ b/static/Stimul_2_1.xlsx
@@ -341,304 +341,304 @@
     <t>Blue</t>
   </si>
   <si>
-    <t>static\К1.jpg</t>
-  </si>
-  <si>
-    <t>static\К2.jpg</t>
-  </si>
-  <si>
-    <t>static\К3.jpg</t>
-  </si>
-  <si>
-    <t>static\К4.jpg</t>
-  </si>
-  <si>
-    <t>static\К5.jpg</t>
-  </si>
-  <si>
-    <t>static\К6.jpg</t>
-  </si>
-  <si>
-    <t>static\К7.jpg</t>
-  </si>
-  <si>
-    <t>static\К8.jpg</t>
-  </si>
-  <si>
-    <t>static\К9.jpg</t>
-  </si>
-  <si>
-    <t>static\К10.jpg</t>
-  </si>
-  <si>
-    <t>static\К11.jpg</t>
-  </si>
-  <si>
-    <t>static\К12.jpg</t>
-  </si>
-  <si>
-    <t>static\К13.jpg</t>
-  </si>
-  <si>
-    <t>static\К14.jpg</t>
-  </si>
-  <si>
-    <t>static\К15.jpg</t>
-  </si>
-  <si>
-    <t>static\К16.jpg</t>
-  </si>
-  <si>
-    <t>static\К17.jpg</t>
-  </si>
-  <si>
-    <t>static\К18.jpg</t>
-  </si>
-  <si>
-    <t>static\К19.jpg</t>
-  </si>
-  <si>
-    <t>static\К20.jpg</t>
-  </si>
-  <si>
-    <t>static\К21.jpg</t>
-  </si>
-  <si>
-    <t>static\К22.jpg</t>
-  </si>
-  <si>
-    <t>static\К23.jpg</t>
-  </si>
-  <si>
-    <t>static\К24.jpg</t>
-  </si>
-  <si>
-    <t>static\К25.jpg</t>
-  </si>
-  <si>
-    <t>static\К26.jpg</t>
-  </si>
-  <si>
-    <t>static\К27.jpg</t>
-  </si>
-  <si>
-    <t>static\К28.jpg</t>
-  </si>
-  <si>
-    <t>static\К29.jpg</t>
-  </si>
-  <si>
-    <t>static\К30.jpg</t>
-  </si>
-  <si>
-    <t>static\К31.jpg</t>
-  </si>
-  <si>
-    <t>static\К32.jpg</t>
-  </si>
-  <si>
-    <t>static\К33.jpg</t>
-  </si>
-  <si>
-    <t>static\К34.jpg</t>
-  </si>
-  <si>
-    <t>static\К35.jpg</t>
-  </si>
-  <si>
-    <t>static\К36.jpg</t>
-  </si>
-  <si>
-    <t>static\К37.jpg</t>
-  </si>
-  <si>
-    <t>static\К38.jpg</t>
-  </si>
-  <si>
-    <t>static\К39.jpg</t>
-  </si>
-  <si>
-    <t>static\К40.jpg</t>
-  </si>
-  <si>
-    <t>static\К41.jpg</t>
-  </si>
-  <si>
-    <t>static\К42.jpg</t>
-  </si>
-  <si>
-    <t>static\К43.jpg</t>
-  </si>
-  <si>
-    <t>static\К44.jpg</t>
-  </si>
-  <si>
-    <t>static\К45.jpg</t>
-  </si>
-  <si>
-    <t>static\К46.jpg</t>
-  </si>
-  <si>
-    <t>static\К47.jpg</t>
-  </si>
-  <si>
-    <t>static\К48.jpg</t>
-  </si>
-  <si>
-    <t>static\К49.jpg</t>
-  </si>
-  <si>
-    <t>static\К50.jpg</t>
-  </si>
-  <si>
-    <t>static\К52.jpg</t>
-  </si>
-  <si>
-    <t>static\К53.jpg</t>
-  </si>
-  <si>
-    <t>static\К54.jpg</t>
-  </si>
-  <si>
-    <t>static\К55.jpg</t>
-  </si>
-  <si>
-    <t>static\К56.jpg</t>
-  </si>
-  <si>
-    <t>static\К57.jpg</t>
-  </si>
-  <si>
-    <t>static\К58.jpg</t>
-  </si>
-  <si>
-    <t>static\К59.jpg</t>
-  </si>
-  <si>
-    <t>static\К60.jpg</t>
-  </si>
-  <si>
-    <t>static\К61.jpg</t>
-  </si>
-  <si>
-    <t>static\К62.jpg</t>
-  </si>
-  <si>
-    <t>static\К63.jpg</t>
-  </si>
-  <si>
-    <t>static\К64.jpg</t>
-  </si>
-  <si>
-    <t>static\К65.jpg</t>
-  </si>
-  <si>
-    <t>static\К66.jpg</t>
-  </si>
-  <si>
-    <t>static\К67.jpg</t>
-  </si>
-  <si>
-    <t>static\К68.jpg</t>
-  </si>
-  <si>
-    <t>static\К69.jpg</t>
-  </si>
-  <si>
-    <t>static\К70.jpg</t>
-  </si>
-  <si>
-    <t>static\К71.jpg</t>
-  </si>
-  <si>
-    <t>static\К72.jpg</t>
-  </si>
-  <si>
-    <t>static\К73.jpg</t>
-  </si>
-  <si>
-    <t>static\К74.jpg</t>
-  </si>
-  <si>
-    <t>static\К75.jpg</t>
-  </si>
-  <si>
-    <t>static\К76.jpg</t>
-  </si>
-  <si>
-    <t>static\К77.jpg</t>
-  </si>
-  <si>
-    <t>static\К78.jpg</t>
-  </si>
-  <si>
-    <t>static\К79.jpg</t>
-  </si>
-  <si>
-    <t>static\К80.jpg</t>
-  </si>
-  <si>
-    <t>static\К81.jpg</t>
-  </si>
-  <si>
-    <t>static\К82.jpg</t>
-  </si>
-  <si>
-    <t>static\К83.jpg</t>
-  </si>
-  <si>
-    <t>static\К84.jpg</t>
-  </si>
-  <si>
-    <t>static\К85.jpg</t>
-  </si>
-  <si>
-    <t>static\К86.jpg</t>
-  </si>
-  <si>
-    <t>static\К87.jpg</t>
-  </si>
-  <si>
-    <t>static\К88.jpg</t>
-  </si>
-  <si>
-    <t>static\К89.jpg</t>
-  </si>
-  <si>
-    <t>static\К90.jpg</t>
-  </si>
-  <si>
-    <t>static\К91.jpg</t>
-  </si>
-  <si>
-    <t>static\К92.jpg</t>
-  </si>
-  <si>
-    <t>static\К93.jpg</t>
-  </si>
-  <si>
-    <t>static\К94.jpg</t>
-  </si>
-  <si>
-    <t>static\К95.jpg</t>
-  </si>
-  <si>
-    <t>static\К96.jpg</t>
-  </si>
-  <si>
-    <t>static\К97.jpg</t>
-  </si>
-  <si>
-    <t>static\К98.jpg</t>
-  </si>
-  <si>
-    <t>static\К99.jpg</t>
-  </si>
-  <si>
-    <t>static\К100.jpg</t>
-  </si>
-  <si>
-    <t>static\К101.jpg</t>
+    <t>..\static\К1.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К2.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К3.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К4.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К5.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К6.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К7.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К8.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К9.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К10.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К11.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К12.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К13.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К14.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К15.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К16.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К17.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К18.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К19.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К20.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К21.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К22.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К23.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К24.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К25.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К26.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К27.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К28.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К29.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К30.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К31.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К32.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К33.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К34.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К35.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К36.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К37.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К38.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К39.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К40.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К41.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К42.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К43.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К44.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К45.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К46.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К47.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К48.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К49.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К50.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К52.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К53.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К54.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К55.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К56.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К57.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К58.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К59.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К60.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К61.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К62.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К63.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К64.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К65.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К66.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К67.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К68.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К69.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К70.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К71.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К72.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К73.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К74.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К75.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К76.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К77.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К78.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К79.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К80.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К81.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К82.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К83.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К84.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К85.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К86.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К87.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К88.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К89.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К90.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К91.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К92.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К93.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К94.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К95.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К96.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К97.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К98.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К99.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К100.jpg</t>
+  </si>
+  <si>
+    <t>..\static\К101.jpg</t>
   </si>
 </sst>
 </file>
@@ -972,7 +972,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B2" sqref="B2:B101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2188,7 +2188,7 @@
     <hyperlink ref="B99" r:id="rId96" display="К99"/>
     <hyperlink ref="B100" r:id="rId97" display="К100"/>
     <hyperlink ref="B101" r:id="rId98" display="К101"/>
-    <hyperlink ref="B2" r:id="rId99"/>
+    <hyperlink ref="B2" r:id="rId99" display="static\К1.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
